--- a/接口文档/日志api/日志接口_平台端.xlsx
+++ b/接口文档/日志api/日志接口_平台端.xlsx
@@ -11,12 +11,12 @@
     <sheet name="目录" sheetId="2" r:id="rId2"/>
     <sheet name="查看物业接口" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -147,6 +147,48 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAt</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作方法返回结果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>事件类型1-查询 2-修改 3-删除 4-保存</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>角色</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1018,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1224,34 +1266,74 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5">
-      <c r="B16" s="18"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="21" customHeight="1">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="16.5">
-      <c r="B19" s="17"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="16.5">
-      <c r="B20" s="17"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="16.5">
       <c r="B21" s="17"/>
